--- a/RabiConfig/xlsx/Camera.xlsx
+++ b/RabiConfig/xlsx/Camera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28FB2A4-0D0E-44D7-A10C-490727BC879B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CBAC9B-4D44-407C-B0CF-D6D928A8F8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
   <si>
     <t>Camera</t>
   </si>
@@ -286,31 +286,11 @@
     <t>Stage2-12</t>
   </si>
   <si>
-    <t>pipelinePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rotation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>渲染管线的资源路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DessertHigh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/PipelineAsset/Wanderer-URP Asset.asset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/PipelineAsset/FruitVaseScene-Var-URP Asset.asset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -736,10 +716,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -748,15 +728,14 @@
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -769,11 +748,8 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -781,16 +757,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -803,13 +776,10 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -820,11 +790,8 @@
       <c r="D4">
         <v>60</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -837,28 +804,22 @@
       <c r="D5">
         <v>60</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>33</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -871,11 +832,8 @@
       <c r="D7">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -888,11 +846,8 @@
       <c r="D8">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -905,11 +860,8 @@
       <c r="D9">
         <v>60</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -922,11 +874,8 @@
       <c r="D10">
         <v>60</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -939,11 +888,8 @@
       <c r="D11">
         <v>27.3</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -956,28 +902,22 @@
       <c r="D12">
         <v>20</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -990,11 +930,8 @@
       <c r="D14">
         <v>60</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1007,11 +944,8 @@
       <c r="D15">
         <v>60</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1024,11 +958,8 @@
       <c r="D16">
         <v>18</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1041,11 +972,8 @@
       <c r="D17">
         <v>18</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1058,11 +986,8 @@
       <c r="D18">
         <v>18</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1075,11 +1000,8 @@
       <c r="D19">
         <v>18</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1092,11 +1014,8 @@
       <c r="D20">
         <v>26</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1109,11 +1028,8 @@
       <c r="D21">
         <v>26</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1126,11 +1042,8 @@
       <c r="D22">
         <v>26</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1143,11 +1056,8 @@
       <c r="D23">
         <v>14</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1160,11 +1070,8 @@
       <c r="D24">
         <v>14</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -1177,11 +1084,8 @@
       <c r="D25">
         <v>14</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1194,11 +1098,8 @@
       <c r="D26">
         <v>59</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1211,11 +1112,8 @@
       <c r="D27">
         <v>18</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -1228,11 +1126,8 @@
       <c r="D28">
         <v>34</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -1245,16 +1140,13 @@
       <c r="D29">
         <v>34</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>72</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -1262,16 +1154,13 @@
       <c r="D30">
         <v>34</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
         <v>74</v>
@@ -1279,62 +1168,50 @@
       <c r="D31">
         <v>34</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D32">
         <v>37.700000000000003</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D33">
         <v>34</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D34">
         <v>34</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -1347,59 +1224,47 @@
       <c r="D35">
         <v>34</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D36">
         <v>34</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D37">
         <v>34</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D38">
         <v>34</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
